--- a/biology/Botanique/Lycopodiophytina/Lycopodiophytina.xlsx
+++ b/biology/Botanique/Lycopodiophytina/Lycopodiophytina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lycopodiophytines
 Les Lycopodiophytines (Lycopodiophytina ou Lycophytina)  sont une lignée de plantes vasculaires (Trachéophytes) comprenant les Lycophytes et les autres taxons qui leur sont apparentés, par opposition à la lignée des Euphyllophytines qui est celle des Monilophytes (fougères et apparentées) et des plantes à graines (Spermatophytes).
@@ -512,11 +524,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le taxon Lycophytina a aussi été proposé, mais il ne respecte pas le code international de nomenclature botanique, le nom étant censé être basé sur le genre Lycopodium[1].
-Lycopodiobiotina[2] peut être considéré comme synonyme par son contenu[1].
-Le clade Pan-Lycopodiophyta a également été créé pour fournir une définition phylogénique, à savoir le clade le plus inclusif contenant les Lycophytes mais pas les Euphyllophytes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le taxon Lycophytina a aussi été proposé, mais il ne respecte pas le code international de nomenclature botanique, le nom étant censé être basé sur le genre Lycopodium.
+Lycopodiobiotina peut être considéré comme synonyme par son contenu.
+Le clade Pan-Lycopodiophyta a également été créé pour fournir une définition phylogénique, à savoir le clade le plus inclusif contenant les Lycophytes mais pas les Euphyllophytes.
 </t>
         </is>
       </c>
@@ -547,13 +561,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Classe actuelle
-Selon ITIS[3] :
-Lycopodiopsida Bartl., 1830 - les Lycophytes
-Taxons fossiles
-Bien qu'elles ne possédaient pas de microphylles, les Zostérophylles sont rapprochées des Lycophytes au sein cette branche. Elles en sont aujourd'hui considérées comme un groupe-tronc paraphylétique.
-D'autre taxons notamment classés dans les Rhyniophytes comme Cooksonia sont souvent considérés comme appartenant à cette branche. Ainsi certains botanistes russes comme Doweld (es), dans son Prosyllabus Tracheophytorum, place plusieurs groupes fossiles aux côtés des lycophytes[2].
-Liste des classes fossiles au sein de Lycopodiobiotina selon Novikov &amp; Barabasz-Krasny (2015)[4] :
+          <t>Classe actuelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS :
+Lycopodiopsida Bartl., 1830 - les Lycophytes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lycopodiophytina</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lycopodiophytina</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxons fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bien qu'elles ne possédaient pas de microphylles, les Zostérophylles sont rapprochées des Lycophytes au sein cette branche. Elles en sont aujourd'hui considérées comme un groupe-tronc paraphylétique.
+D'autre taxons notamment classés dans les Rhyniophytes comme Cooksonia sont souvent considérés comme appartenant à cette branche. Ainsi certains botanistes russes comme Doweld (es), dans son Prosyllabus Tracheophytorum, place plusieurs groupes fossiles aux côtés des lycophytes.
+Liste des classes fossiles au sein de Lycopodiobiotina selon Novikov &amp; Barabasz-Krasny (2015) :
 Lycopodiobiotina Doweld :
 division † Langiophytophyta Doweld :
 † Langiophtopsida Doweld
@@ -566,33 +619,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Lycopodiophytina</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lycopodiophytina</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Position phylogénique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des Ptéridophytes actuelles d'après le Pteridophyte Phylogeny Group (2016)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des Ptéridophytes actuelles d'après le Pteridophyte Phylogeny Group (2016) :
 </t>
         </is>
       </c>
